--- a/prompt_versions.xlsx
+++ b/prompt_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\棒\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D24DC2-EE42-4BCD-9170-2575A2B372B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAC6A1-0AC8-4E24-B56E-857585A87F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="16457" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -359,6 +359,29 @@
 ---Action Required---
 Your previous 'final' output was missing information. After re-running your full protocol, you will have identified these omissions.
 **Append ONLY the items that were missing from your previous output below**. Do not generate a full list again. Just provide the additions.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You missed some entities and relationships.
+Please look at the text again and add the ones you missed.
+Remember to use **{record_delimiter}** to separate each new item you add.
+When you are finished, output {completion_delimiter}.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find all entities of these types: [{entity_types}] and the relationships between them in the text below.
+Use {language} for your output.
+Use **{record_delimiter}** to separate each item.
+When you are completely finished, output {completion_delimiter}.
+---Examples---
+{examples}
+---Text---
+{input_text}
+---Output---</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,13 +448,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -736,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -759,59 +787,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="198" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/prompt_versions.xlsx
+++ b/prompt_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\棒\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAC6A1-0AC8-4E24-B56E-857585A87F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C4694-AB8E-409B-8238-B1A592278FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="16457" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -382,6 +382,29 @@
 ---Text---
 {input_text}
 ---Output---</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简洁版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find all entities of these types: [{entity_types}] and the relationships between them in the text below.
+Use {language} for your output.
+List each item you find.
+Use **{record_delimiter}** to separate each item.
+When you are completely finished, output {completion_delimiter}.
+---Examples---
+{examples}
+---Text---
+{input_text}
+---Output---</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You missed some entities and relationships.
+use **{record_delimiter}** to separate each new item you add.
+When you are finished, output {completion_delimiter}.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -764,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -844,13 +867,24 @@
     </row>
     <row r="7" spans="1:3" ht="198" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="212.15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/prompt_versions.xlsx
+++ b/prompt_versions.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\棒\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C4694-AB8E-409B-8238-B1A592278FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="16457" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,11 +19,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>entity_extraction</t>
+  </si>
+  <si>
     <t>entity_continue_extraction</t>
   </si>
   <si>
     <t>原版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>---Goal---
@@ -65,7 +61,6 @@
 {input_text}
 ######################
 Output:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MANY entities and relationships were missed in the last extraction.
@@ -89,27 +84,9 @@
 5. When finished, output {completion_delimiter}
 ---Output---
 Add them below using the same format:\n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_extraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专家分析师版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GraphRAG深度挖掘版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightRAG高效版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我修正版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>---Persona---
@@ -155,95 +132,24 @@
 {input_text}
 ######################
 Output:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>---Goal---
-Quickly extract the most important entities and their strongest relationships from the given text. Focus on efficiency and conciseness.
-Use {language} as output language.
----Instructions---
-1.  **Identify Key Entities**:
-    - Task: Find all entities of types: [{entity_types}].
-    - For each entity, provide:
-      - entity_name: The entity's name, in the same language as the input text. Capitalize if English.
-      - entity_type: One of: [{entity_types}].
-      - entity_description: A brief, one-sentence description of the entity's main role in the text.
+  </si>
+  <si>
+    <t>---Notice---
+An expert review of the initial extraction has identified omissions. A second, more thorough pass is required to ensure the knowledge graph is complete.
+---Reminder of Protocol---
+Remember your role as an expert Knowledge Graph architect. Your mission is to meticulously analyze the provided text to construct a high-quality, structured knowledge graph.
+1.  **Comprehensive Entity Identification**: Scrutinize the entire text to find every entity matching the provided types.
     - Format: ("entity"{tuple_delimiter}&lt;entity_name&gt;{tuple_delimiter}&lt;entity_type&gt;{tuple_delimiter}&lt;entity_description&gt;)
-2.  **Extract Strongest Relationships**:
-    - Task: Identify only the most direct and clearly stated relationships between entities. Ignore weak or speculative connections.
-    - For each strong relationship (strength &gt; 5), provide:
-      - source_entity: Name of the source entity.
-      - target_entity: Name of the target entity.
-      - relationship_description: A very short phrase explaining the connection.
-      - relationship_strength: A numeric score from 6 to 10.
-      - relationship_keywords: A single, primary keyword for the relationship.
+2.  **Precise Relationship Extraction**: Identify all pairs (source_entity, target_entity) with a clear and meaningful connection.
     - Format: ("relationship"{tuple_delimiter}&lt;source_entity&gt;{tuple_delimiter}&lt;target_entity&gt;{tuple_delimiter}&lt;relationship_description&gt;{tuple_delimiter}&lt;relationship_keywords&gt;{tuple_delimiter}&lt;relationship_strength&gt;)
-3.  **Extract Main Keywords**:
-    - Task: List the top 3-5 keywords for the entire text.
-    - Format: ("content_keywords"{tuple_delimiter}&lt;main_keywords&gt;)
----Output---
-4.  **Generate Output**:
-    - Task: Combine all extracted items into one list, separated by **{record_delimiter}**.
-5.  **Finish**:
-    - Task: Output {completion_delimiter} when done.
-######################
----Examples---
-######################
-{examples}
-#############################
----Real Data---
-######################
-Entity_types: [{entity_types}]
-Text:
-{input_text}
-######################
-Output:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>---Persona---
-You are a dual-role AI: first as a diligent extractor, then as a meticulous quality assurance editor. Your goal is to produce a flawless knowledge graph through a process of extraction and self-correction.
----Goal---
-From a given document and entity types, first draft a set of entities and relationships, then critically review and refine that draft to produce a final, high-accuracy output.
-Use {language} as output language.
----Process---
-### STAGE 1: DRAFT EXTRACTION ###
-1.  **Initial Entity Identification**:
-    - Task: Perform a first pass to identify all potential entities of types: [{entity_types}].
-    - For each entity, extract: `entity_name`, `entity_type`, `entity_description`.
-    - Format: ("entity"{tuple_delimiter}&lt;entity_name&gt;{tuple_delimiter}&lt;entity_type&gt;{tuple_delimiter}&lt;entity_description&gt;)
-2.  **Initial Relationship Identification**:
-    - Task: Perform a first pass to identify all potential relationships.
-    - For each relationship, extract: `source_entity`, `target_entity`, `relationship_description`, `relationship_strength`, `relationship_keywords`.
-    - Format: ("relationship"{tuple_delimiter}&lt;source_entity&gt;{tuple_delimiter}&lt;target_entity&gt;{tuple_delimiter}&lt;relationship_description&gt;{tuple_delimiter}&lt;relationship_keywords&gt;{tuple_delimiter}&lt;relationship_strength&gt;)
-3.  **Initial Keyword Identification**:
-    - Task: Identify content keywords.
+3.  **Thematic Keyword Synthesis**: Identify high-level keywords summarizing the main concepts.
     - Format: ("content_keywords"{tuple_delimiter}&lt;high_level_keywords&gt;)
-### STAGE 2: REVIEW &amp; REFINE ###
-4.  **Self-Critique**:
-    - Task: Review the entire draft generated in Stage 1 against the following checklist:
-        - Completeness: Have I missed any entities present in the text?
-        - Accuracy: Are all entity types and names correct according to the text?
-        - Relationship Validity: Does the text truly support every extracted relationship? Is the strength score accurate?
-        - Formatting: Is every single entry formatted perfectly according to the required tuple structure?
-    - You must silently perform this review. Do not output the critique itself.
-5.  **Final Output Generation**:
-    - Task: Based on your self-critique, generate the final, corrected list of ALL entities, relationships, and keywords. Add any missed items and remove any incorrect ones. Use **{record_delimiter}** as the delimiter. This is your final answer.
-6.  **Completion Signal**:
-    - Task: When the final, refined list is complete, output {completion_delimiter}.
-######################
----Examples---
-######################
-{examples}
-#############################
----Real Data---
-######################
-Entity_types: [{entity_types}]
-Text:
-{input_text}
-######################
-Output:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+---Action Required---
+You previously missed some entities and/or relationships. Identify the items that were missed in your last output.
+**Append ONLY the newly found entities and relationships below**, using the same high standards and format. Do not repeat items you have already provided.</t>
+  </si>
+  <si>
+    <t>GraphRAG深度挖掘版</t>
   </si>
   <si>
     <t>---Persona---
@@ -291,23 +197,6 @@
 {input_text}
 ######################
 Output:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>---Notice---
-An expert review of the initial extraction has identified omissions. A second, more thorough pass is required to ensure the knowledge graph is complete.
----Reminder of Protocol---
-Remember your role as an expert Knowledge Graph architect. Your mission is to meticulously analyze the provided text to construct a high-quality, structured knowledge graph.
-1.  **Comprehensive Entity Identification**: Scrutinize the entire text to find every entity matching the provided types.
-    - Format: ("entity"{tuple_delimiter}&lt;entity_name&gt;{tuple_delimiter}&lt;entity_type&gt;{tuple_delimiter}&lt;entity_description&gt;)
-2.  **Precise Relationship Extraction**: Identify all pairs (source_entity, target_entity) with a clear and meaningful connection.
-    - Format: ("relationship"{tuple_delimiter}&lt;source_entity&gt;{tuple_delimiter}&lt;target_entity&gt;{tuple_delimiter}&lt;relationship_description&gt;{tuple_delimiter}&lt;relationship_keywords&gt;{tuple_delimiter}&lt;relationship_strength&gt;)
-3.  **Thematic Keyword Synthesis**: Identify high-level keywords summarizing the main concepts.
-    - Format: ("content_keywords"{tuple_delimiter}&lt;high_level_keywords&gt;)
----Action Required---
-You previously missed some entities and/or relationships. Identify the items that were missed in your last output.
-**Append ONLY the newly found entities and relationships below**, using the same high standards and format. Do not repeat items you have already provided.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>---Directive---
@@ -325,7 +214,51 @@
 ---Action Required---
 Significant entities, relationships, or claims were overlooked previously. Your task is to find them now.
 **Append ALL missing items below**. Ensure every detail is captured and formatted correctly. Do not repeat items from your previous output.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightRAG高效版</t>
+  </si>
+  <si>
+    <t>---Goal---
+Quickly extract the most important entities and their strongest relationships from the given text. Focus on efficiency and conciseness.
+Use {language} as output language.
+---Instructions---
+1.  **Identify Key Entities**:
+    - Task: Find all entities of types: [{entity_types}].
+    - For each entity, provide:
+      - entity_name: The entity's name, in the same language as the input text. Capitalize if English.
+      - entity_type: One of: [{entity_types}].
+      - entity_description: A brief, one-sentence description of the entity's main role in the text.
+    - Format: ("entity"{tuple_delimiter}&lt;entity_name&gt;{tuple_delimiter}&lt;entity_type&gt;{tuple_delimiter}&lt;entity_description&gt;)
+2.  **Extract Strongest Relationships**:
+    - Task: Identify only the most direct and clearly stated relationships between entities. Ignore weak or speculative connections.
+    - For each strong relationship (strength &gt; 5), provide:
+      - source_entity: Name of the source entity.
+      - target_entity: Name of the target entity.
+      - relationship_description: A very short phrase explaining the connection.
+      - relationship_strength: A numeric score from 6 to 10.
+      - relationship_keywords: A single, primary keyword for the relationship.
+    - Format: ("relationship"{tuple_delimiter}&lt;source_entity&gt;{tuple_delimiter}&lt;target_entity&gt;{tuple_delimiter}&lt;relationship_description&gt;{tuple_delimiter}&lt;relationship_keywords&gt;{tuple_delimiter}&lt;relationship_strength&gt;)
+3.  **Extract Main Keywords**:
+    - Task: List the top 3-5 keywords for the entire text.
+    - Format: ("content_keywords"{tuple_delimiter}&lt;main_keywords&gt;)
+---Output---
+4.  **Generate Output**:
+    - Task: Combine all extracted items into one list, separated by **{record_delimiter}**.
+5.  **Finish**:
+    - Task: Output {completion_delimiter} when done.
+######################
+---Examples---
+######################
+{examples}
+#############################
+---Real Data---
+######################
+Entity_types: [{entity_types}]
+Text:
+{input_text}
+######################
+Output:</t>
   </si>
   <si>
     <t>---Follow-up---
@@ -341,7 +274,53 @@
 ---Action Required---
 You missed some key entities or strong relationships.
 **Add ONLY the missed items below**. Maintain the concise format. Do not add weak relationships or repeat previous output.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我修正版</t>
+  </si>
+  <si>
+    <t>---Persona---
+You are a dual-role AI: first as a diligent extractor, then as a meticulous quality assurance editor. Your goal is to produce a flawless knowledge graph through a process of extraction and self-correction.
+---Goal---
+From a given document and entity types, first draft a set of entities and relationships, then critically review and refine that draft to produce a final, high-accuracy output.
+Use {language} as output language.
+---Process---
+### STAGE 1: DRAFT EXTRACTION ###
+1.  **Initial Entity Identification**:
+    - Task: Perform a first pass to identify all potential entities of types: [{entity_types}].
+    - For each entity, extract: `entity_name`, `entity_type`, `entity_description`.
+    - Format: ("entity"{tuple_delimiter}&lt;entity_name&gt;{tuple_delimiter}&lt;entity_type&gt;{tuple_delimiter}&lt;entity_description&gt;)
+2.  **Initial Relationship Identification**:
+    - Task: Perform a first pass to identify all potential relationships.
+    - For each relationship, extract: `source_entity`, `target_entity`, `relationship_description`, `relationship_strength`, `relationship_keywords`.
+    - Format: ("relationship"{tuple_delimiter}&lt;source_entity&gt;{tuple_delimiter}&lt;target_entity&gt;{tuple_delimiter}&lt;relationship_description&gt;{tuple_delimiter}&lt;relationship_keywords&gt;{tuple_delimiter}&lt;relationship_strength&gt;)
+3.  **Initial Keyword Identification**:
+    - Task: Identify content keywords.
+    - Format: ("content_keywords"{tuple_delimiter}&lt;high_level_keywords&gt;)
+### STAGE 2: REVIEW &amp; REFINE ###
+4.  **Self-Critique**:
+    - Task: Review the entire draft generated in Stage 1 against the following checklist:
+        - Completeness: Have I missed any entities present in the text?
+        - Accuracy: Are all entity types and names correct according to the text?
+        - Relationship Validity: Does the text truly support every extracted relationship? Is the strength score accurate?
+        - Formatting: Is every single entry formatted perfectly according to the required tuple structure?
+    - You must silently perform this review. Do not output the critique itself.
+5.  **Final Output Generation**:
+    - Task: Based on your self-critique, generate the final, corrected list of ALL entities, relationships, and keywords. Add any missed items and remove any incorrect ones. Use **{record_delimiter}** as the delimiter. This is your final answer.
+6.  **Completion Signal**:
+    - Task: When the final, refined list is complete, output {completion_delimiter}.
+######################
+---Examples---
+######################
+{examples}
+#############################
+---Real Data---
+######################
+Entity_types: [{entity_types}]
+Text:
+{input_text}
+######################
+Output:</t>
   </si>
   <si>
     <t>---Audit Finding---
@@ -359,18 +338,9 @@
 ---Action Required---
 Your previous 'final' output was missing information. After re-running your full protocol, you will have identified these omissions.
 **Append ONLY the items that were missing from your previous output below**. Do not generate a full list again. Just provide the additions.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基准版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You missed some entities and relationships.
-Please look at the text again and add the ones you missed.
-Remember to use **{record_delimiter}** to separate each new item you add.
-When you are finished, output {completion_delimiter}.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简洁版</t>
   </si>
   <si>
     <t>Find all entities of these types: [{entity_types}] and the relationships between them in the text below.
@@ -382,58 +352,54 @@
 ---Text---
 {input_text}
 ---Output---</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简洁版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find all entities of these types: [{entity_types}] and the relationships between them in the text below.
-Use {language} for your output.
-List each item you find.
+  </si>
+  <si>
+    <t>You missed some entities and relationships.
+Please look at the text again and add the ones you missed.
+Remember to use **{record_delimiter}** to separate each new item you add.
+When you are finished, output {completion_delimiter}.</t>
+  </si>
+  <si>
+    <t>基准版</t>
+  </si>
+  <si>
+    <t>Find all entities of these types: [{entity_types}] and the relationships.
 Use **{record_delimiter}** to separate each item.
 When you are completely finished, output {completion_delimiter}.
----Examples---
 {examples}
----Text---
-{input_text}
----Output---</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+{input_text}</t>
   </si>
   <si>
     <t>You missed some entities and relationships.
 use **{record_delimiter}** to separate each new item you add.
 When you are finished, output {completion_delimiter}.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -454,61 +420,79 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -541,79 +525,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,54 +618,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -691,7 +674,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -700,7 +683,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -709,7 +692,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -717,10 +700,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -749,7 +732,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -762,13 +745,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -786,109 +768,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.4609375" customWidth="1"/>
-    <col min="3" max="3" width="75.3046875" customWidth="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="52.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="75.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="829.5" customFormat="1" s="3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="975.75">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="1041.75">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="776.25">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="1002">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="178.5" customFormat="1" s="3">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="198" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="192" customFormat="1" s="3">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="212.15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>